--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
@@ -668,10 +668,10 @@
         <v>2.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>1.67</v>
@@ -680,10 +680,10 @@
         <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
         <v>4.75</v>
@@ -692,7 +692,7 @@
         <v>7.5</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W2" t="n">
         <v>17</v>
@@ -716,13 +716,13 @@
         <v>101</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>51</v>
@@ -779,13 +779,13 @@
         <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>2.25</v>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -910,10 +910,10 @@
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
         <v>1.44</v>
@@ -922,22 +922,22 @@
         <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -949,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="AA4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB4" t="n">
         <v>13</v>
@@ -961,19 +961,19 @@
         <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
         <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,44 +581,44 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dQtWlF9e</t>
+          <t>Gz7Y92BE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -628,117 +628,119 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Los Andes</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.75</v>
       </c>
-      <c r="I2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.1</v>
-      </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="U2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>19</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="n">
         <v>7.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>11</v>
-      </c>
-      <c r="W2" t="n">
-        <v>17</v>
-      </c>
-      <c r="X2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>351</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gz7Y92BE</t>
+          <t>O0At8ttR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -748,7 +750,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -758,22 +760,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
@@ -794,73 +796,73 @@
         <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.5</v>
+        <v>251</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>41</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>O0At8ttR</t>
+          <t>AeVWgRFr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -870,119 +872,59 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T4" t="n">
-        <v>8</v>
-      </c>
-      <c r="U4" t="n">
-        <v>12</v>
-      </c>
-      <c r="V4" t="n">
-        <v>11</v>
-      </c>
-      <c r="W4" t="n">
-        <v>26</v>
-      </c>
-      <c r="X4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>251</v>
-      </c>
+          <t>Huila</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AeVWgRFr</t>
+          <t>l4irnDa3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -992,59 +934,113 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>ECUADOR - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Cumbaya</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Huila</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>Ind. Juniors</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13</v>
+      </c>
+      <c r="X5" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>175</v>
+      </c>
       <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l4irnDa3</t>
+          <t>GWAirVbS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1054,7 +1050,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1064,106 +1060,98 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ind. Juniors</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>Guayaquil City</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W6" t="n">
+        <v>23</v>
+      </c>
+      <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>100</v>
+      </c>
       <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GWAirVbS</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ECUADOR - SERIE B</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Guayaquil City</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -674,7 +674,7 @@
         <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -793,13 +793,13 @@
         <v>2.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R3" t="n">
         <v>1.83</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -671,7 +671,7 @@
         <v>2.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P2" t="n">
         <v>1.47</v>
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
         <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
         <v>1.41</v>
@@ -808,25 +808,25 @@
         <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U3" t="n">
+        <v>13</v>
+      </c>
+      <c r="V3" t="n">
         <v>12</v>
       </c>
-      <c r="V3" t="n">
-        <v>11</v>
-      </c>
       <c r="W3" t="n">
+        <v>29</v>
+      </c>
+      <c r="X3" t="n">
         <v>26</v>
       </c>
-      <c r="X3" t="n">
-        <v>23</v>
-      </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
         <v>5.5</v>
@@ -838,25 +838,25 @@
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -656,13 +656,13 @@
         <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
         <v>7.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>2.75</v>
@@ -674,7 +674,7 @@
         <v>1.58</v>
       </c>
       <c r="P2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -778,13 +778,13 @@
         <v>2.65</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K3" t="n">
         <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -796,16 +796,16 @@
         <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
         <v>8.5</v>
@@ -890,36 +890,92 @@
           <t>Huila</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.5</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9</v>
+      </c>
+      <c r="V4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>20</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -656,13 +656,13 @@
         <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K2" t="n">
         <v>7.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>2.75</v>
@@ -671,7 +671,7 @@
         <v>2.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
         <v>1.5</v>
@@ -772,10 +772,10 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.65</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
@@ -793,7 +793,7 @@
         <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -802,10 +802,10 @@
         <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -1009,13 +1009,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.45</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -1023,74 +1023,74 @@
         <v>1.47</v>
       </c>
       <c r="M5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N5" t="n">
         <v>2.32</v>
       </c>
-      <c r="N5" t="n">
-        <v>2.37</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="U5" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="V5" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X5" t="n">
         <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
         <v>9.25</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1125,88 +1125,88 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="T6" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="V6" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W6" t="n">
+        <v>22</v>
+      </c>
+      <c r="X6" t="n">
         <v>23</v>
       </c>
-      <c r="X6" t="n">
-        <v>22</v>
-      </c>
       <c r="Y6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
         <v>7.7</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AJ6" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="H4" t="n">
         <v>2.95</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -926,19 +926,19 @@
         <v>1.65</v>
       </c>
       <c r="T4" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
         <v>40</v>
@@ -959,19 +959,19 @@
         <v>900</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ4" t="n">
         <v>50</v>
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1139,13 +1139,13 @@
         <v>1.52</v>
       </c>
       <c r="M6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="N6" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
         <v>1.55</v>
@@ -1154,22 +1154,22 @@
         <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S6" t="n">
         <v>1.6</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="U6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
@@ -1178,32 +1178,32 @@
         <v>45</v>
       </c>
       <c r="Z6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA6" t="n">
         <v>5.8</v>
       </c>
-      <c r="AA6" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>120</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -772,10 +772,10 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>2.87</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1160,19 +1160,19 @@
         <v>1.6</v>
       </c>
       <c r="T6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="U6" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V6" t="n">
         <v>9.75</v>
       </c>
       <c r="W6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
         <v>45</v>
@@ -1184,7 +1184,7 @@
         <v>5.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
         <v>120</v>
@@ -1203,10 +1203,10 @@
         <v>45</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
@@ -772,10 +772,10 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.65</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1020,10 +1020,10 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="N5" t="n">
         <v>2.32</v>
@@ -1035,7 +1035,7 @@
         <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R5" t="n">
         <v>2.1</v>
@@ -1056,26 +1056,26 @@
         <v>15</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
         <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB5" t="n">
         <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
         <v>23</v>
@@ -1160,7 +1160,7 @@
         <v>1.6</v>
       </c>
       <c r="T6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U6" t="n">
         <v>9.75</v>
@@ -1169,7 +1169,7 @@
         <v>9.75</v>
       </c>
       <c r="W6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X6" t="n">
         <v>24</v>
@@ -1184,14 +1184,14 @@
         <v>5.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>120</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1206,7 +1206,7 @@
         <v>37</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
@@ -1009,88 +1009,88 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="N5" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.47</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="T5" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="U5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
         <v>8.75</v>
       </c>
       <c r="W5" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="X5" t="n">
         <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="6">

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -659,7 +659,7 @@
         <v>1.08</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
@@ -772,10 +772,10 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
@@ -802,10 +802,10 @@
         <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-05.xlsx
@@ -662,10 +662,10 @@
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>2.25</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -796,22 +796,22 @@
         <v>1.6</v>
       </c>
       <c r="P3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
         <v>8.5</v>
       </c>
       <c r="U3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V3" t="n">
         <v>12</v>
@@ -826,7 +826,7 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>5.5</v>
@@ -841,7 +841,7 @@
         <v>301</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
